--- a/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
+++ b/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DCE02A-42CF-45AF-B295-C69FD6AF9674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C4DCE02A-42CF-45AF-B295-C69FD6AF9674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93FBCBD-4B9A-4BBD-9979-D75E3F856199}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,10 +158,10 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>LO</t>
-  </si>
-  <si>
     <t>ELCHEAT</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,7 +699,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -712,7 +712,7 @@
         <v>1344.364</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="9">
         <v>0.2</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>20574.61</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="9">
         <v>0.5</v>
@@ -789,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="7">
         <v>3256.4</v>

--- a/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
+++ b/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C4DCE02A-42CF-45AF-B295-C69FD6AF9674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93FBCBD-4B9A-4BBD-9979-D75E3F856199}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C4DCE02A-42CF-45AF-B295-C69FD6AF9674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440343A7-70CC-44A9-8876-C3FD87F16055}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +213,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,14 +233,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCACACA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,28 +253,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF5F5F5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF5F5F5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF5F5F5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF5F5F5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,9 +275,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -323,6 +293,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,7 +589,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -781,7 +755,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -794,22 +768,22 @@
       <c r="E20" s="7">
         <v>3256.4</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <v>4273.3500000000004</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="7">
         <v>6721.82</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <v>10573.18</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="7">
         <v>16631.23</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="7">
         <v>26160.32</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="7">
         <v>41149.22</v>
       </c>
     </row>

--- a/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
+++ b/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C4DCE02A-42CF-45AF-B295-C69FD6AF9674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440343A7-70CC-44A9-8876-C3FD87F16055}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BEB55D-33A9-4FA1-8CA3-6C4FF6B67B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELCHEAT_BND" sheetId="2" r:id="rId1"/>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +212,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,7 +266,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -276,6 +283,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,10 +302,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,30 +593,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" customWidth="1"/>
-    <col min="5" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -624,7 +629,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -671,7 +676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -692,7 +697,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>25</v>
       </c>
@@ -713,17 +718,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -755,60 +760,62 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="11">
         <v>3256.4</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="11">
         <v>4273.3500000000004</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="11">
         <v>6721.82</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="11">
         <v>10573.18</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="11">
         <v>16631.23</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="11">
         <v>26160.32</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="11">
         <v>41149.22</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>

--- a/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
+++ b/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BEB55D-33A9-4FA1-8CA3-6C4FF6B67B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F187FB-722E-436D-9FCA-BE730AB03B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,17 +158,17 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>ELCHEAT</t>
-  </si>
-  <si>
     <t>UP</t>
+  </si>
+  <si>
+    <t>MANOILIMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -261,12 +268,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -280,16 +288,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,7 +606,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +618,7 @@
     <col min="10" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -678,7 +690,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -688,18 +700,18 @@
       </c>
       <c r="G4" s="7">
         <f>Q4*G20</f>
-        <v>1344.364</v>
+        <v>3360.9144136577074</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>0.2</v>
+        <v>25</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -709,13 +721,13 @@
       </c>
       <c r="G5" s="7">
         <f>K20*Q5</f>
-        <v>20574.61</v>
+        <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0.5</v>
+        <v>25</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -761,38 +773,38 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11">
-        <v>3256.4</v>
-      </c>
-      <c r="F20" s="11">
-        <v>4273.3500000000004</v>
-      </c>
-      <c r="G20" s="11">
-        <v>6721.82</v>
-      </c>
-      <c r="H20" s="11">
-        <v>10573.18</v>
-      </c>
-      <c r="I20" s="11">
-        <v>16631.23</v>
-      </c>
-      <c r="J20" s="11">
-        <v>26160.32</v>
-      </c>
-      <c r="K20" s="11">
-        <v>41149.22</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3256.4002605120013</v>
+      </c>
+      <c r="F20" s="10">
+        <v>4273.3543497923511</v>
+      </c>
+      <c r="G20" s="10">
+        <v>6721.8288273154149</v>
+      </c>
+      <c r="H20" s="10">
+        <v>10573.188901576563</v>
+      </c>
+      <c r="I20" s="10">
+        <v>16631.236293035749</v>
+      </c>
+      <c r="J20" s="10">
+        <v>26160.321470615705</v>
+      </c>
+      <c r="K20" s="10">
+        <v>41149.221103456555</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E21" s="7"/>

--- a/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
+++ b/SuppXLS/Scen_ELCHEAT_20_50_BOUND.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F187FB-722E-436D-9FCA-BE730AB03B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37568C47-3C20-46CB-BB8C-1A5579EDE4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ELCHEAT_BND" sheetId="2" r:id="rId1"/>
+    <sheet name="MANOILIMP_BND" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -606,7 +606,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +730,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
